--- a/PTS2022-data/2010_County-level_ASRH.xlsx
+++ b/PTS2022-data/2010_County-level_ASRH.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/mary_ryan_yale_edu/Documents/Desktop/personal-code/pathwaysToScience-2022/PTS2022-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_4A5BF44E32D08FC3DC7A0C001EEE32ED1106DB32" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13DF99FB-5EBC-4A58-A27E-39E8C9EF2A4D}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CT 2010 ASRH County" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,19 @@
     <definedName name="IDX" localSheetId="0">'CT 2010 ASRH County'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CT 2010 ASRH County'!$A$1:$U$159</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -311,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1559,58 +1577,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1631,12 +1597,64 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1678,7 +1696,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1690,6 +1708,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1738,7 +1759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1771,9 +1792,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1806,6 +1844,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1981,14 +2036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U172"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="Y133" sqref="Y133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,32 +2071,32 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-    </row>
-    <row r="2" spans="1:21" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+    </row>
+    <row r="2" spans="1:22" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
@@ -2064,77 +2119,77 @@
       <c r="T2" s="18"/>
       <c r="U2" s="17"/>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="59" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="56" t="s">
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53" t="s">
+      <c r="M4" s="50"/>
+      <c r="N4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53" t="s">
+      <c r="O4" s="50"/>
+      <c r="P4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="62" t="s">
+      <c r="S4" s="50"/>
+      <c r="T4" s="51" t="s">
         <v>35</v>
       </c>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2165,7 +2220,7 @@
       <c r="J5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="10" t="s">
         <v>38</v>
       </c>
@@ -2190,13 +2245,13 @@
       <c r="S5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="63"/>
+      <c r="T5" s="52"/>
       <c r="U5" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2259,9 +2314,13 @@
       <c r="U6" s="40">
         <v>10582</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="V6" s="18">
+        <f>SUM(U6:U24)</f>
+        <v>918339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2382,8 @@
         <v>46315</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
       <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
@@ -2386,8 +2445,8 @@
         <v>62862</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
       <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
@@ -2449,8 +2508,8 @@
         <v>66631</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
@@ -2512,8 +2571,8 @@
         <v>62018</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
       <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
@@ -2575,8 +2634,8 @@
         <v>50606</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
@@ -2638,8 +2697,8 @@
         <v>52392</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+    <row r="13" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -2701,8 +2760,8 @@
         <v>54112</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
       <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
@@ -2764,8 +2823,8 @@
         <v>59843</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+    <row r="15" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
       <c r="B15" s="14" t="s">
         <v>11</v>
       </c>
@@ -2827,8 +2886,8 @@
         <v>71202</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+    <row r="16" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
       <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
@@ -2890,8 +2949,8 @@
         <v>77123</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+    <row r="17" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
       <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
@@ -2953,8 +3012,8 @@
         <v>72122</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+    <row r="18" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
       <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
@@ -3016,8 +3075,8 @@
         <v>59023</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+    <row r="19" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
       <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
@@ -3079,8 +3138,8 @@
         <v>48959</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+    <row r="20" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
       <c r="B20" s="14" t="s">
         <v>16</v>
       </c>
@@ -3142,8 +3201,8 @@
         <v>36508</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
+    <row r="21" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
       <c r="B21" s="14" t="s">
         <v>17</v>
       </c>
@@ -3205,8 +3264,8 @@
         <v>26163</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+    <row r="22" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
       <c r="B22" s="14" t="s">
         <v>18</v>
       </c>
@@ -3268,8 +3327,8 @@
         <v>22108</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+    <row r="23" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
       <c r="B23" s="14" t="s">
         <v>19</v>
       </c>
@@ -3331,8 +3390,8 @@
         <v>19147</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
+    <row r="24" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="55"/>
       <c r="B24" s="14" t="s">
         <v>20</v>
       </c>
@@ -3394,8 +3453,8 @@
         <v>20623</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+    <row r="25" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -3458,9 +3517,13 @@
       <c r="U25" s="41">
         <v>9775</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="V25" s="18">
+        <f>SUM(U25:U43)</f>
+        <v>894127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
       <c r="B26" s="14" t="s">
         <v>3</v>
       </c>
@@ -3522,8 +3585,8 @@
         <v>40851</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+    <row r="27" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="54"/>
       <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
@@ -3585,8 +3648,8 @@
         <v>55342</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+    <row r="28" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
       <c r="B28" s="14" t="s">
         <v>5</v>
       </c>
@@ -3648,8 +3711,8 @@
         <v>59673</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+    <row r="29" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
       <c r="B29" s="14" t="s">
         <v>6</v>
       </c>
@@ -3711,8 +3774,8 @@
         <v>61401</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+    <row r="30" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="54"/>
       <c r="B30" s="14" t="s">
         <v>7</v>
       </c>
@@ -3774,8 +3837,8 @@
         <v>55716</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
+    <row r="31" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
       <c r="B31" s="14" t="s">
         <v>8</v>
       </c>
@@ -3837,8 +3900,8 @@
         <v>56744</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+    <row r="32" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="54"/>
       <c r="B32" s="14" t="s">
         <v>9</v>
       </c>
@@ -3900,8 +3963,8 @@
         <v>53211</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
+    <row r="33" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="54"/>
       <c r="B33" s="14" t="s">
         <v>10</v>
       </c>
@@ -3963,8 +4026,8 @@
         <v>55026</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
+    <row r="34" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="54"/>
       <c r="B34" s="14" t="s">
         <v>11</v>
       </c>
@@ -4026,8 +4089,8 @@
         <v>63351</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
+    <row r="35" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="54"/>
       <c r="B35" s="14" t="s">
         <v>12</v>
       </c>
@@ -4089,8 +4152,8 @@
         <v>70903</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="54"/>
       <c r="B36" s="14" t="s">
         <v>13</v>
       </c>
@@ -4152,8 +4215,8 @@
         <v>70072</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
+    <row r="37" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="54"/>
       <c r="B37" s="14" t="s">
         <v>14</v>
       </c>
@@ -4215,8 +4278,8 @@
         <v>60101</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+    <row r="38" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="54"/>
       <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
@@ -4278,8 +4341,8 @@
         <v>51559</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+    <row r="39" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="54"/>
       <c r="B39" s="14" t="s">
         <v>16</v>
       </c>
@@ -4341,8 +4404,8 @@
         <v>36970</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+    <row r="40" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="54"/>
       <c r="B40" s="14" t="s">
         <v>17</v>
       </c>
@@ -4404,8 +4467,8 @@
         <v>27011</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+    <row r="41" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="54"/>
       <c r="B41" s="14" t="s">
         <v>18</v>
       </c>
@@ -4467,8 +4530,8 @@
         <v>23179</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+    <row r="42" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="54"/>
       <c r="B42" s="14" t="s">
         <v>19</v>
       </c>
@@ -4530,8 +4593,8 @@
         <v>20366</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
+    <row r="43" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="55"/>
       <c r="B43" s="14" t="s">
         <v>20</v>
       </c>
@@ -4593,8 +4656,8 @@
         <v>22876</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="47" t="s">
+    <row r="44" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -4657,9 +4720,13 @@
       <c r="U44" s="41">
         <v>1622</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="V44" s="18">
+        <f>SUM(U44:U62)</f>
+        <v>189751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="54"/>
       <c r="B45" s="14" t="s">
         <v>3</v>
       </c>
@@ -4721,8 +4788,8 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+    <row r="46" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="54"/>
       <c r="B46" s="14" t="s">
         <v>4</v>
       </c>
@@ -4784,8 +4851,8 @@
         <v>11011</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
+    <row r="47" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="54"/>
       <c r="B47" s="14" t="s">
         <v>5</v>
       </c>
@@ -4847,8 +4914,8 @@
         <v>12542</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+    <row r="48" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="54"/>
       <c r="B48" s="14" t="s">
         <v>6</v>
       </c>
@@ -4910,8 +4977,8 @@
         <v>12123</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+    <row r="49" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="54"/>
       <c r="B49" s="14" t="s">
         <v>7</v>
       </c>
@@ -4973,8 +5040,8 @@
         <v>8803</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+    <row r="50" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="54"/>
       <c r="B50" s="14" t="s">
         <v>8</v>
       </c>
@@ -5036,8 +5103,8 @@
         <v>8695</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+    <row r="51" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="54"/>
       <c r="B51" s="14" t="s">
         <v>9</v>
       </c>
@@ -5099,8 +5166,8 @@
         <v>8892</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
+    <row r="52" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="54"/>
       <c r="B52" s="14" t="s">
         <v>10</v>
       </c>
@@ -5162,8 +5229,8 @@
         <v>10785</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+    <row r="53" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="54"/>
       <c r="B53" s="14" t="s">
         <v>11</v>
       </c>
@@ -5225,8 +5292,8 @@
         <v>14517</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+    <row r="54" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="54"/>
       <c r="B54" s="14" t="s">
         <v>12</v>
       </c>
@@ -5288,8 +5355,8 @@
         <v>16858</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+    <row r="55" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="54"/>
       <c r="B55" s="14" t="s">
         <v>13</v>
       </c>
@@ -5351,8 +5418,8 @@
         <v>17550</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+    <row r="56" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="54"/>
       <c r="B56" s="14" t="s">
         <v>14</v>
       </c>
@@ -5414,8 +5481,8 @@
         <v>15313</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
+    <row r="57" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="54"/>
       <c r="B57" s="14" t="s">
         <v>15</v>
       </c>
@@ -5477,8 +5544,8 @@
         <v>13160</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+    <row r="58" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="54"/>
       <c r="B58" s="14" t="s">
         <v>16</v>
       </c>
@@ -5540,8 +5607,8 @@
         <v>9465</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+    <row r="59" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="54"/>
       <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
@@ -5603,8 +5670,8 @@
         <v>6563</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
+    <row r="60" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="54"/>
       <c r="B60" s="14" t="s">
         <v>18</v>
       </c>
@@ -5666,8 +5733,8 @@
         <v>5195</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+    <row r="61" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="54"/>
       <c r="B61" s="14" t="s">
         <v>19</v>
       </c>
@@ -5729,8 +5796,8 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="49"/>
+    <row r="62" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="55"/>
       <c r="B62" s="14" t="s">
         <v>20</v>
       </c>
@@ -5792,8 +5859,8 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="47" t="s">
+    <row r="63" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -5856,9 +5923,13 @@
       <c r="U63" s="41">
         <v>1521</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
+      <c r="V63" s="18">
+        <f>SUM(U63:U81)</f>
+        <v>165630</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="54"/>
       <c r="B64" s="14" t="s">
         <v>3</v>
       </c>
@@ -5921,7 +5992,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="14" t="s">
         <v>4</v>
       </c>
@@ -5984,7 +6055,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="14" t="s">
         <v>5</v>
       </c>
@@ -6047,7 +6118,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="14" t="s">
         <v>6</v>
       </c>
@@ -6110,7 +6181,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="14" t="s">
         <v>7</v>
       </c>
@@ -6173,7 +6244,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
@@ -6236,7 +6307,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="14" t="s">
         <v>9</v>
       </c>
@@ -6299,7 +6370,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="14" t="s">
         <v>10</v>
       </c>
@@ -6362,7 +6433,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="14" t="s">
         <v>11</v>
       </c>
@@ -6425,7 +6496,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="14" t="s">
         <v>12</v>
       </c>
@@ -6488,7 +6559,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="14" t="s">
         <v>13</v>
       </c>
@@ -6551,7 +6622,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
@@ -6614,7 +6685,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="48"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="14" t="s">
         <v>15</v>
       </c>
@@ -6677,7 +6748,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="14" t="s">
         <v>16</v>
       </c>
@@ -6740,7 +6811,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="14" t="s">
         <v>17</v>
       </c>
@@ -6803,7 +6874,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="14" t="s">
         <v>18</v>
       </c>
@@ -6866,7 +6937,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="48"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="14" t="s">
         <v>19</v>
       </c>
@@ -6928,8 +6999,8 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="49"/>
+    <row r="81" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="55"/>
       <c r="B81" s="14" t="s">
         <v>20</v>
       </c>
@@ -6991,8 +7062,8 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="47" t="s">
+    <row r="82" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="53" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -7055,9 +7126,13 @@
       <c r="U82" s="41">
         <v>9237</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="48"/>
+      <c r="V82" s="18">
+        <f>SUM(U82:U100)</f>
+        <v>862438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="54"/>
       <c r="B83" s="14" t="s">
         <v>3</v>
       </c>
@@ -7119,8 +7194,8 @@
         <v>39354</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="48"/>
+    <row r="84" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="54"/>
       <c r="B84" s="14" t="s">
         <v>4</v>
       </c>
@@ -7182,8 +7257,8 @@
         <v>51647</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="48"/>
+    <row r="85" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="54"/>
       <c r="B85" s="14" t="s">
         <v>5</v>
       </c>
@@ -7245,8 +7320,8 @@
         <v>56278</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
+    <row r="86" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="54"/>
       <c r="B86" s="14" t="s">
         <v>6</v>
       </c>
@@ -7308,8 +7383,8 @@
         <v>61982</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="48"/>
+    <row r="87" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="54"/>
       <c r="B87" s="14" t="s">
         <v>7</v>
       </c>
@@ -7371,8 +7446,8 @@
         <v>59643</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="48"/>
+    <row r="88" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="54"/>
       <c r="B88" s="14" t="s">
         <v>8</v>
       </c>
@@ -7434,8 +7509,8 @@
         <v>56030</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="48"/>
+    <row r="89" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="54"/>
       <c r="B89" s="14" t="s">
         <v>9</v>
       </c>
@@ -7497,8 +7572,8 @@
         <v>52114</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="48"/>
+    <row r="90" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="54"/>
       <c r="B90" s="14" t="s">
         <v>10</v>
       </c>
@@ -7560,8 +7635,8 @@
         <v>52507</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="48"/>
+    <row r="91" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="54"/>
       <c r="B91" s="14" t="s">
         <v>11</v>
       </c>
@@ -7623,8 +7698,8 @@
         <v>61072</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="48"/>
+    <row r="92" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="54"/>
       <c r="B92" s="14" t="s">
         <v>12</v>
       </c>
@@ -7686,8 +7761,8 @@
         <v>66189</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="48"/>
+    <row r="93" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="54"/>
       <c r="B93" s="14" t="s">
         <v>13</v>
       </c>
@@ -7749,8 +7824,8 @@
         <v>66131</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="48"/>
+    <row r="94" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="54"/>
       <c r="B94" s="14" t="s">
         <v>14</v>
       </c>
@@ -7812,8 +7887,8 @@
         <v>56712</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="48"/>
+    <row r="95" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="54"/>
       <c r="B95" s="14" t="s">
         <v>15</v>
       </c>
@@ -7875,8 +7950,8 @@
         <v>49297</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="48"/>
+    <row r="96" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="54"/>
       <c r="B96" s="14" t="s">
         <v>16</v>
       </c>
@@ -7938,8 +8013,8 @@
         <v>35756</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="48"/>
+    <row r="97" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="54"/>
       <c r="B97" s="14" t="s">
         <v>17</v>
       </c>
@@ -8001,8 +8076,8 @@
         <v>25197</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="48"/>
+    <row r="98" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="54"/>
       <c r="B98" s="14" t="s">
         <v>18</v>
       </c>
@@ -8064,8 +8139,8 @@
         <v>21664</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="48"/>
+    <row r="99" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="54"/>
       <c r="B99" s="14" t="s">
         <v>19</v>
       </c>
@@ -8127,8 +8202,8 @@
         <v>19376</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="49"/>
+    <row r="100" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="55"/>
       <c r="B100" s="14" t="s">
         <v>20</v>
       </c>
@@ -8190,8 +8265,8 @@
         <v>22252</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="47" t="s">
+    <row r="101" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="53" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="14" t="s">
@@ -8254,9 +8329,13 @@
       <c r="U101" s="41">
         <v>2891</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="48"/>
+      <c r="V101" s="18">
+        <f>SUM(U101:U119)</f>
+        <v>274018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="54"/>
       <c r="B102" s="14" t="s">
         <v>3</v>
       </c>
@@ -8318,8 +8397,8 @@
         <v>12090</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="48"/>
+    <row r="103" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="54"/>
       <c r="B103" s="14" t="s">
         <v>4</v>
       </c>
@@ -8381,8 +8460,8 @@
         <v>16112</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="48"/>
+    <row r="104" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="54"/>
       <c r="B104" s="14" t="s">
         <v>5</v>
       </c>
@@ -8444,8 +8523,8 @@
         <v>17160</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="48"/>
+    <row r="105" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="54"/>
       <c r="B105" s="14" t="s">
         <v>6</v>
       </c>
@@ -8507,8 +8586,8 @@
         <v>18597</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="48"/>
+    <row r="106" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="54"/>
       <c r="B106" s="14" t="s">
         <v>7</v>
       </c>
@@ -8570,8 +8649,8 @@
         <v>19386</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="48"/>
+    <row r="107" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="54"/>
       <c r="B107" s="14" t="s">
         <v>8</v>
       </c>
@@ -8633,8 +8712,8 @@
         <v>17023</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="48"/>
+    <row r="108" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="54"/>
       <c r="B108" s="14" t="s">
         <v>9</v>
       </c>
@@ -8696,8 +8775,8 @@
         <v>15694</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="48"/>
+    <row r="109" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="54"/>
       <c r="B109" s="14" t="s">
         <v>10</v>
       </c>
@@ -8759,8 +8838,8 @@
         <v>16352</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="48"/>
+    <row r="110" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="54"/>
       <c r="B110" s="14" t="s">
         <v>11</v>
       </c>
@@ -8822,8 +8901,8 @@
         <v>19706</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="48"/>
+    <row r="111" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="54"/>
       <c r="B111" s="14" t="s">
         <v>12</v>
       </c>
@@ -8885,8 +8964,8 @@
         <v>22333</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="48"/>
+    <row r="112" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="54"/>
       <c r="B112" s="14" t="s">
         <v>13</v>
       </c>
@@ -8948,8 +9027,8 @@
         <v>22299</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="48"/>
+    <row r="113" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="54"/>
       <c r="B113" s="14" t="s">
         <v>14</v>
       </c>
@@ -9011,8 +9090,8 @@
         <v>19158</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="48"/>
+    <row r="114" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="54"/>
       <c r="B114" s="14" t="s">
         <v>15</v>
       </c>
@@ -9074,8 +9153,8 @@
         <v>16060</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="48"/>
+    <row r="115" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="54"/>
       <c r="B115" s="14" t="s">
         <v>16</v>
       </c>
@@ -9137,8 +9216,8 @@
         <v>12170</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="48"/>
+    <row r="116" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="54"/>
       <c r="B116" s="14" t="s">
         <v>17</v>
       </c>
@@ -9200,8 +9279,8 @@
         <v>8309</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="48"/>
+    <row r="117" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="54"/>
       <c r="B117" s="14" t="s">
         <v>18</v>
       </c>
@@ -9263,8 +9342,8 @@
         <v>6946</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="48"/>
+    <row r="118" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="54"/>
       <c r="B118" s="14" t="s">
         <v>19</v>
       </c>
@@ -9326,8 +9405,8 @@
         <v>5843</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="49"/>
+    <row r="119" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="55"/>
       <c r="B119" s="14" t="s">
         <v>20</v>
       </c>
@@ -9389,8 +9468,8 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="47" t="s">
+    <row r="120" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="53" t="s">
         <v>26</v>
       </c>
       <c r="B120" s="14" t="s">
@@ -9453,9 +9532,13 @@
       <c r="U120" s="41">
         <v>1263</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="48"/>
+      <c r="V120" s="18">
+        <f>SUM(U120:U138)</f>
+        <v>152734</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="54"/>
       <c r="B121" s="14" t="s">
         <v>3</v>
       </c>
@@ -9517,8 +9600,8 @@
         <v>5693</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="48"/>
+    <row r="122" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="54"/>
       <c r="B122" s="14" t="s">
         <v>4</v>
       </c>
@@ -9580,8 +9663,8 @@
         <v>8386</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="48"/>
+    <row r="123" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="54"/>
       <c r="B123" s="14" t="s">
         <v>5</v>
       </c>
@@ -9643,8 +9726,8 @@
         <v>9583</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="48"/>
+    <row r="124" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="54"/>
       <c r="B124" s="14" t="s">
         <v>6</v>
       </c>
@@ -9706,8 +9789,8 @@
         <v>13856</v>
       </c>
     </row>
-    <row r="125" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="48"/>
+    <row r="125" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="54"/>
       <c r="B125" s="14" t="s">
         <v>7</v>
       </c>
@@ -9769,8 +9852,8 @@
         <v>16898</v>
       </c>
     </row>
-    <row r="126" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="48"/>
+    <row r="126" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="54"/>
       <c r="B126" s="14" t="s">
         <v>8</v>
       </c>
@@ -9832,8 +9915,8 @@
         <v>7975</v>
       </c>
     </row>
-    <row r="127" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="48"/>
+    <row r="127" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="54"/>
       <c r="B127" s="14" t="s">
         <v>9</v>
       </c>
@@ -9895,8 +9978,8 @@
         <v>7545</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="48"/>
+    <row r="128" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="54"/>
       <c r="B128" s="14" t="s">
         <v>10</v>
       </c>
@@ -9958,8 +10041,8 @@
         <v>8713</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="48"/>
+    <row r="129" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="54"/>
       <c r="B129" s="14" t="s">
         <v>11</v>
       </c>
@@ -10021,8 +10104,8 @@
         <v>10803</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="48"/>
+    <row r="130" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="54"/>
       <c r="B130" s="14" t="s">
         <v>12</v>
       </c>
@@ -10084,8 +10167,8 @@
         <v>12502</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="48"/>
+    <row r="131" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="54"/>
       <c r="B131" s="14" t="s">
         <v>13</v>
       </c>
@@ -10147,8 +10230,8 @@
         <v>12541</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="48"/>
+    <row r="132" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="54"/>
       <c r="B132" s="14" t="s">
         <v>14</v>
       </c>
@@ -10210,8 +10293,8 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="48"/>
+    <row r="133" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="54"/>
       <c r="B133" s="14" t="s">
         <v>15</v>
       </c>
@@ -10273,8 +10356,8 @@
         <v>8402</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="48"/>
+    <row r="134" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="54"/>
       <c r="B134" s="14" t="s">
         <v>16</v>
       </c>
@@ -10336,8 +10419,8 @@
         <v>6259</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="48"/>
+    <row r="135" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="54"/>
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
@@ -10399,8 +10482,8 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="48"/>
+    <row r="136" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="54"/>
       <c r="B136" s="14" t="s">
         <v>18</v>
       </c>
@@ -10462,8 +10545,8 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="48"/>
+    <row r="137" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="54"/>
       <c r="B137" s="14" t="s">
         <v>19</v>
       </c>
@@ -10525,8 +10608,8 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="49"/>
+    <row r="138" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="55"/>
       <c r="B138" s="14" t="s">
         <v>20</v>
       </c>
@@ -10588,8 +10671,8 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="47" t="s">
+    <row r="139" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B139" s="14" t="s">
@@ -10652,9 +10735,13 @@
       <c r="U139" s="41">
         <v>1167</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="48"/>
+      <c r="V139" s="18">
+        <f>SUM(U139:U157)</f>
+        <v>118461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="54"/>
       <c r="B140" s="14" t="s">
         <v>3</v>
       </c>
@@ -10716,8 +10803,8 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="48"/>
+    <row r="141" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="54"/>
       <c r="B141" s="14" t="s">
         <v>4</v>
       </c>
@@ -10779,8 +10866,8 @@
         <v>7128</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="48"/>
+    <row r="142" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="54"/>
       <c r="B142" s="14" t="s">
         <v>5</v>
       </c>
@@ -10842,8 +10929,8 @@
         <v>7657</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="48"/>
+    <row r="143" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="54"/>
       <c r="B143" s="14" t="s">
         <v>6</v>
       </c>
@@ -10905,8 +10992,8 @@
         <v>9219</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="48"/>
+    <row r="144" spans="1:22" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="54"/>
       <c r="B144" s="14" t="s">
         <v>7</v>
       </c>
@@ -10969,7 +11056,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="48"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="14" t="s">
         <v>8</v>
       </c>
@@ -11032,7 +11119,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="48"/>
+      <c r="A146" s="54"/>
       <c r="B146" s="14" t="s">
         <v>9</v>
       </c>
@@ -11095,7 +11182,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="48"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="14" t="s">
         <v>10</v>
       </c>
@@ -11158,7 +11245,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="48"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="14" t="s">
         <v>11</v>
       </c>
@@ -11221,7 +11308,7 @@
       </c>
     </row>
     <row r="149" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="48"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="14" t="s">
         <v>12</v>
       </c>
@@ -11284,7 +11371,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="48"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="14" t="s">
         <v>13</v>
       </c>
@@ -11347,7 +11434,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="48"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="14" t="s">
         <v>14</v>
       </c>
@@ -11410,7 +11497,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="48"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="14" t="s">
         <v>15</v>
       </c>
@@ -11473,7 +11560,7 @@
       </c>
     </row>
     <row r="153" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="48"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="14" t="s">
         <v>16</v>
       </c>
@@ -11536,7 +11623,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="48"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="14" t="s">
         <v>17</v>
       </c>
@@ -11599,7 +11686,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="48"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="14" t="s">
         <v>18</v>
       </c>
@@ -11662,7 +11749,7 @@
       </c>
     </row>
     <row r="156" spans="1:21" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="48"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="14" t="s">
         <v>19</v>
       </c>
@@ -11725,7 +11812,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="50"/>
+      <c r="A157" s="61"/>
       <c r="B157" s="15" t="s">
         <v>20</v>
       </c>
@@ -11788,10 +11875,10 @@
       </c>
     </row>
     <row r="158" spans="1:21" s="19" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="51" t="s">
+      <c r="A158" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="52"/>
+      <c r="B158" s="63"/>
       <c r="C158" s="35">
         <v>1254678</v>
       </c>
@@ -11872,254 +11959,254 @@
       <c r="U159" s="18"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A160" s="46" t="s">
+      <c r="A160" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B160" s="46"/>
-      <c r="C160" s="46"/>
-      <c r="D160" s="46"/>
-      <c r="E160" s="46"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="46"/>
-      <c r="H160" s="46"/>
-      <c r="I160" s="46"/>
-      <c r="J160" s="46"/>
-      <c r="K160" s="46"/>
-      <c r="L160" s="46"/>
-      <c r="M160" s="46"/>
-      <c r="N160" s="46"/>
-      <c r="O160" s="46"/>
-      <c r="P160" s="46"/>
-      <c r="Q160" s="46"/>
-      <c r="R160" s="46"/>
-      <c r="S160" s="46"/>
-      <c r="T160" s="46"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="60"/>
+      <c r="G160" s="60"/>
+      <c r="H160" s="60"/>
+      <c r="I160" s="60"/>
+      <c r="J160" s="60"/>
+      <c r="K160" s="60"/>
+      <c r="L160" s="60"/>
+      <c r="M160" s="60"/>
+      <c r="N160" s="60"/>
+      <c r="O160" s="60"/>
+      <c r="P160" s="60"/>
+      <c r="Q160" s="60"/>
+      <c r="R160" s="60"/>
+      <c r="S160" s="60"/>
+      <c r="T160" s="60"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="46"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="46"/>
-      <c r="E161" s="46"/>
-      <c r="F161" s="46"/>
-      <c r="G161" s="46"/>
-      <c r="H161" s="46"/>
-      <c r="I161" s="46"/>
-      <c r="J161" s="46"/>
-      <c r="K161" s="46"/>
-      <c r="L161" s="46"/>
-      <c r="M161" s="46"/>
-      <c r="N161" s="46"/>
-      <c r="O161" s="46"/>
-      <c r="P161" s="46"/>
-      <c r="Q161" s="46"/>
-      <c r="R161" s="46"/>
-      <c r="S161" s="46"/>
-      <c r="T161" s="46"/>
+      <c r="A161" s="60"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="60"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
+      <c r="I161" s="60"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
+      <c r="L161" s="60"/>
+      <c r="M161" s="60"/>
+      <c r="N161" s="60"/>
+      <c r="O161" s="60"/>
+      <c r="P161" s="60"/>
+      <c r="Q161" s="60"/>
+      <c r="R161" s="60"/>
+      <c r="S161" s="60"/>
+      <c r="T161" s="60"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="46"/>
-      <c r="B162" s="46"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="46"/>
-      <c r="E162" s="46"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="46"/>
-      <c r="H162" s="46"/>
-      <c r="I162" s="46"/>
-      <c r="J162" s="46"/>
-      <c r="K162" s="46"/>
-      <c r="L162" s="46"/>
-      <c r="M162" s="46"/>
-      <c r="N162" s="46"/>
-      <c r="O162" s="46"/>
-      <c r="P162" s="46"/>
-      <c r="Q162" s="46"/>
-      <c r="R162" s="46"/>
-      <c r="S162" s="46"/>
-      <c r="T162" s="46"/>
+      <c r="A162" s="60"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
+      <c r="I162" s="60"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
+      <c r="L162" s="60"/>
+      <c r="M162" s="60"/>
+      <c r="N162" s="60"/>
+      <c r="O162" s="60"/>
+      <c r="P162" s="60"/>
+      <c r="Q162" s="60"/>
+      <c r="R162" s="60"/>
+      <c r="S162" s="60"/>
+      <c r="T162" s="60"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" s="46"/>
-      <c r="B163" s="46"/>
-      <c r="C163" s="46"/>
-      <c r="D163" s="46"/>
-      <c r="E163" s="46"/>
-      <c r="F163" s="46"/>
-      <c r="G163" s="46"/>
-      <c r="H163" s="46"/>
-      <c r="I163" s="46"/>
-      <c r="J163" s="46"/>
-      <c r="K163" s="46"/>
-      <c r="L163" s="46"/>
-      <c r="M163" s="46"/>
-      <c r="N163" s="46"/>
-      <c r="O163" s="46"/>
-      <c r="P163" s="46"/>
-      <c r="Q163" s="46"/>
-      <c r="R163" s="46"/>
-      <c r="S163" s="46"/>
-      <c r="T163" s="46"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="60"/>
+      <c r="G163" s="60"/>
+      <c r="H163" s="60"/>
+      <c r="I163" s="60"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
+      <c r="L163" s="60"/>
+      <c r="M163" s="60"/>
+      <c r="N163" s="60"/>
+      <c r="O163" s="60"/>
+      <c r="P163" s="60"/>
+      <c r="Q163" s="60"/>
+      <c r="R163" s="60"/>
+      <c r="S163" s="60"/>
+      <c r="T163" s="60"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A164" s="46"/>
-      <c r="B164" s="46"/>
-      <c r="C164" s="46"/>
-      <c r="D164" s="46"/>
-      <c r="E164" s="46"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="46"/>
-      <c r="H164" s="46"/>
-      <c r="I164" s="46"/>
-      <c r="J164" s="46"/>
-      <c r="K164" s="46"/>
-      <c r="L164" s="46"/>
-      <c r="M164" s="46"/>
-      <c r="N164" s="46"/>
-      <c r="O164" s="46"/>
-      <c r="P164" s="46"/>
-      <c r="Q164" s="46"/>
-      <c r="R164" s="46"/>
-      <c r="S164" s="46"/>
-      <c r="T164" s="46"/>
+      <c r="A164" s="60"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="60"/>
+      <c r="G164" s="60"/>
+      <c r="H164" s="60"/>
+      <c r="I164" s="60"/>
+      <c r="J164" s="60"/>
+      <c r="K164" s="60"/>
+      <c r="L164" s="60"/>
+      <c r="M164" s="60"/>
+      <c r="N164" s="60"/>
+      <c r="O164" s="60"/>
+      <c r="P164" s="60"/>
+      <c r="Q164" s="60"/>
+      <c r="R164" s="60"/>
+      <c r="S164" s="60"/>
+      <c r="T164" s="60"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="45" t="s">
+      <c r="A165" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B165" s="45"/>
-      <c r="C165" s="45"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="45"/>
-      <c r="F165" s="45"/>
-      <c r="G165" s="45"/>
-      <c r="H165" s="45"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="45"/>
-      <c r="K165" s="45"/>
-      <c r="L165" s="45"/>
-      <c r="M165" s="45"/>
-      <c r="N165" s="45"/>
-      <c r="O165" s="45"/>
-      <c r="P165" s="45"/>
-      <c r="Q165" s="45"/>
-      <c r="R165" s="45"/>
-      <c r="S165" s="45"/>
-      <c r="T165" s="45"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="59"/>
+      <c r="H165" s="59"/>
+      <c r="I165" s="59"/>
+      <c r="J165" s="59"/>
+      <c r="K165" s="59"/>
+      <c r="L165" s="59"/>
+      <c r="M165" s="59"/>
+      <c r="N165" s="59"/>
+      <c r="O165" s="59"/>
+      <c r="P165" s="59"/>
+      <c r="Q165" s="59"/>
+      <c r="R165" s="59"/>
+      <c r="S165" s="59"/>
+      <c r="T165" s="59"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="45"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="45"/>
-      <c r="D166" s="45"/>
-      <c r="E166" s="45"/>
-      <c r="F166" s="45"/>
-      <c r="G166" s="45"/>
-      <c r="H166" s="45"/>
-      <c r="I166" s="45"/>
-      <c r="J166" s="45"/>
-      <c r="K166" s="45"/>
-      <c r="L166" s="45"/>
-      <c r="M166" s="45"/>
-      <c r="N166" s="45"/>
-      <c r="O166" s="45"/>
-      <c r="P166" s="45"/>
-      <c r="Q166" s="45"/>
-      <c r="R166" s="45"/>
-      <c r="S166" s="45"/>
-      <c r="T166" s="45"/>
+      <c r="A166" s="59"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="59"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="59"/>
+      <c r="I166" s="59"/>
+      <c r="J166" s="59"/>
+      <c r="K166" s="59"/>
+      <c r="L166" s="59"/>
+      <c r="M166" s="59"/>
+      <c r="N166" s="59"/>
+      <c r="O166" s="59"/>
+      <c r="P166" s="59"/>
+      <c r="Q166" s="59"/>
+      <c r="R166" s="59"/>
+      <c r="S166" s="59"/>
+      <c r="T166" s="59"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="44" t="s">
+      <c r="A167" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B167" s="44"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="44"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="44"/>
-      <c r="I167" s="44"/>
-      <c r="J167" s="44"/>
-      <c r="K167" s="44"/>
-      <c r="L167" s="44"/>
-      <c r="M167" s="44"/>
-      <c r="N167" s="44"/>
-      <c r="O167" s="44"/>
-      <c r="P167" s="44"/>
-      <c r="Q167" s="44"/>
-      <c r="R167" s="44"/>
-      <c r="S167" s="44"/>
-      <c r="T167" s="44"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="58"/>
+      <c r="G167" s="58"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="58"/>
+      <c r="J167" s="58"/>
+      <c r="K167" s="58"/>
+      <c r="L167" s="58"/>
+      <c r="M167" s="58"/>
+      <c r="N167" s="58"/>
+      <c r="O167" s="58"/>
+      <c r="P167" s="58"/>
+      <c r="Q167" s="58"/>
+      <c r="R167" s="58"/>
+      <c r="S167" s="58"/>
+      <c r="T167" s="58"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
-      <c r="B168" s="44"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="44"/>
-      <c r="I168" s="44"/>
-      <c r="J168" s="44"/>
-      <c r="K168" s="44"/>
-      <c r="L168" s="44"/>
-      <c r="M168" s="44"/>
-      <c r="N168" s="44"/>
-      <c r="O168" s="44"/>
-      <c r="P168" s="44"/>
-      <c r="Q168" s="44"/>
-      <c r="R168" s="44"/>
-      <c r="S168" s="44"/>
-      <c r="T168" s="44"/>
+      <c r="A168" s="58"/>
+      <c r="B168" s="58"/>
+      <c r="C168" s="58"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="58"/>
+      <c r="J168" s="58"/>
+      <c r="K168" s="58"/>
+      <c r="L168" s="58"/>
+      <c r="M168" s="58"/>
+      <c r="N168" s="58"/>
+      <c r="O168" s="58"/>
+      <c r="P168" s="58"/>
+      <c r="Q168" s="58"/>
+      <c r="R168" s="58"/>
+      <c r="S168" s="58"/>
+      <c r="T168" s="58"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" s="44" t="s">
+      <c r="A169" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B169" s="44"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="44"/>
-      <c r="E169" s="44"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="44"/>
-      <c r="I169" s="44"/>
-      <c r="J169" s="44"/>
-      <c r="K169" s="44"/>
-      <c r="L169" s="44"/>
-      <c r="M169" s="44"/>
-      <c r="N169" s="44"/>
-      <c r="O169" s="44"/>
-      <c r="P169" s="44"/>
-      <c r="Q169" s="44"/>
-      <c r="R169" s="44"/>
-      <c r="S169" s="44"/>
-      <c r="T169" s="44"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
+      <c r="G169" s="58"/>
+      <c r="H169" s="58"/>
+      <c r="I169" s="58"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="58"/>
+      <c r="L169" s="58"/>
+      <c r="M169" s="58"/>
+      <c r="N169" s="58"/>
+      <c r="O169" s="58"/>
+      <c r="P169" s="58"/>
+      <c r="Q169" s="58"/>
+      <c r="R169" s="58"/>
+      <c r="S169" s="58"/>
+      <c r="T169" s="58"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
-      <c r="B170" s="44"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="44"/>
-      <c r="E170" s="44"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="44"/>
-      <c r="I170" s="44"/>
-      <c r="J170" s="44"/>
-      <c r="K170" s="44"/>
-      <c r="L170" s="44"/>
-      <c r="M170" s="44"/>
-      <c r="N170" s="44"/>
-      <c r="O170" s="44"/>
-      <c r="P170" s="44"/>
-      <c r="Q170" s="44"/>
-      <c r="R170" s="44"/>
-      <c r="S170" s="44"/>
-      <c r="T170" s="44"/>
+      <c r="A170" s="58"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="58"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="58"/>
+      <c r="F170" s="58"/>
+      <c r="G170" s="58"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="58"/>
+      <c r="J170" s="58"/>
+      <c r="K170" s="58"/>
+      <c r="L170" s="58"/>
+      <c r="M170" s="58"/>
+      <c r="N170" s="58"/>
+      <c r="O170" s="58"/>
+      <c r="P170" s="58"/>
+      <c r="Q170" s="58"/>
+      <c r="R170" s="58"/>
+      <c r="S170" s="58"/>
+      <c r="T170" s="58"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="43"/>
@@ -12167,6 +12254,23 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A169:T170"/>
+    <mergeCell ref="A167:T168"/>
+    <mergeCell ref="A165:T166"/>
+    <mergeCell ref="A160:T164"/>
+    <mergeCell ref="A101:A119"/>
+    <mergeCell ref="A120:A138"/>
+    <mergeCell ref="A139:A157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A82:A100"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A44:A62"/>
+    <mergeCell ref="A63:A81"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:K3"/>
@@ -12177,23 +12281,6 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A82:A100"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="A25:A43"/>
-    <mergeCell ref="A44:A62"/>
-    <mergeCell ref="A63:A81"/>
-    <mergeCell ref="A169:T170"/>
-    <mergeCell ref="A167:T168"/>
-    <mergeCell ref="A165:T166"/>
-    <mergeCell ref="A160:T164"/>
-    <mergeCell ref="A101:A119"/>
-    <mergeCell ref="A120:A138"/>
-    <mergeCell ref="A139:A157"/>
-    <mergeCell ref="A158:B158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" fitToHeight="0" orientation="landscape" r:id="rId1"/>
